--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H2">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.22859715237915</v>
+        <v>4.435593666666667</v>
       </c>
       <c r="N2">
-        <v>4.22859715237915</v>
+        <v>13.306781</v>
       </c>
       <c r="O2">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="P2">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="Q2">
-        <v>36.61629472331745</v>
+        <v>45.58630677295744</v>
       </c>
       <c r="R2">
-        <v>36.61629472331745</v>
+        <v>410.276760956617</v>
       </c>
       <c r="S2">
-        <v>0.1018872372888661</v>
+        <v>0.09732571329942435</v>
       </c>
       <c r="T2">
-        <v>0.1018872372888661</v>
+        <v>0.09732571329942437</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H3">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72681321985602</v>
+        <v>5.974929333333333</v>
       </c>
       <c r="N3">
-        <v>5.72681321985602</v>
+        <v>17.924788</v>
       </c>
       <c r="O3">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="P3">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="Q3">
-        <v>49.58965659938956</v>
+        <v>61.40665308974621</v>
       </c>
       <c r="R3">
-        <v>49.58965659938956</v>
+        <v>552.6598778077159</v>
       </c>
       <c r="S3">
-        <v>0.1379864660581809</v>
+        <v>0.1311017877156738</v>
       </c>
       <c r="T3">
-        <v>0.1379864660581809</v>
+        <v>0.1311017877156739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H4">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I4">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J4">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.57593423578618</v>
+        <v>3.398978</v>
       </c>
       <c r="N4">
-        <v>2.57593423578618</v>
+        <v>10.196934</v>
       </c>
       <c r="O4">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="P4">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="Q4">
-        <v>22.3055457321968</v>
+        <v>34.93260777851533</v>
       </c>
       <c r="R4">
-        <v>22.3055457321968</v>
+        <v>314.393470006638</v>
       </c>
       <c r="S4">
-        <v>0.06206664131493222</v>
+        <v>0.07458031172356053</v>
       </c>
       <c r="T4">
-        <v>0.06206664131493222</v>
+        <v>0.07458031172356054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H5">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I5">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J5">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.23311351541586</v>
+        <v>2.466151666666667</v>
       </c>
       <c r="N5">
-        <v>2.23311351541586</v>
+        <v>7.398455</v>
       </c>
       <c r="O5">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="P5">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="Q5">
-        <v>19.33699042129966</v>
+        <v>25.34559179082611</v>
       </c>
       <c r="R5">
-        <v>19.33699042129966</v>
+        <v>228.110326117435</v>
       </c>
       <c r="S5">
-        <v>0.05380644181490216</v>
+        <v>0.05411225375909415</v>
       </c>
       <c r="T5">
-        <v>0.05380644181490216</v>
+        <v>0.05411225375909416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H6">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J6">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.22859715237915</v>
+        <v>4.435593666666667</v>
       </c>
       <c r="N6">
-        <v>4.22859715237915</v>
+        <v>13.306781</v>
       </c>
       <c r="O6">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="P6">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="Q6">
-        <v>7.195690912308438</v>
+        <v>8.814113071093111</v>
       </c>
       <c r="R6">
-        <v>7.195690912308438</v>
+        <v>79.327017639838</v>
       </c>
       <c r="S6">
-        <v>0.02002248105603198</v>
+        <v>0.01881792806814528</v>
       </c>
       <c r="T6">
-        <v>0.02002248105603198</v>
+        <v>0.01881792806814528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H7">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J7">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.72681321985602</v>
+        <v>5.974929333333333</v>
       </c>
       <c r="N7">
-        <v>5.72681321985602</v>
+        <v>17.924788</v>
       </c>
       <c r="O7">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="P7">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="Q7">
-        <v>9.745165206721236</v>
+        <v>11.87297725929155</v>
       </c>
       <c r="R7">
-        <v>9.745165206721236</v>
+        <v>106.856795333624</v>
       </c>
       <c r="S7">
-        <v>0.02711656019100478</v>
+        <v>0.02534853254297592</v>
       </c>
       <c r="T7">
-        <v>0.02711656019100478</v>
+        <v>0.02534853254297592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H8">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J8">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.57593423578618</v>
+        <v>3.398978</v>
       </c>
       <c r="N8">
-        <v>2.57593423578618</v>
+        <v>10.196934</v>
       </c>
       <c r="O8">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="P8">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="Q8">
-        <v>4.383398536964448</v>
+        <v>6.754220217081333</v>
       </c>
       <c r="R8">
-        <v>4.383398536964448</v>
+        <v>60.787981953732</v>
       </c>
       <c r="S8">
-        <v>0.01219709340450988</v>
+        <v>0.01442010434586884</v>
       </c>
       <c r="T8">
-        <v>0.01219709340450988</v>
+        <v>0.01442010434586884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.70167330984932</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H9">
-        <v>1.70167330984932</v>
+        <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J9">
-        <v>0.06990996598310924</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.23311351541586</v>
+        <v>2.466151666666667</v>
       </c>
       <c r="N9">
-        <v>2.23311351541586</v>
+        <v>7.398455</v>
       </c>
       <c r="O9">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="P9">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="Q9">
-        <v>3.800029667046957</v>
+        <v>4.900570537787778</v>
       </c>
       <c r="R9">
-        <v>3.800029667046957</v>
+        <v>44.10513484009</v>
       </c>
       <c r="S9">
-        <v>0.0105738313315626</v>
+        <v>0.01046260504365479</v>
       </c>
       <c r="T9">
-        <v>0.0105738313315626</v>
+        <v>0.01046260504365479</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H10">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I10">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J10">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.22859715237915</v>
+        <v>4.435593666666667</v>
       </c>
       <c r="N10">
-        <v>4.22859715237915</v>
+        <v>13.306781</v>
       </c>
       <c r="O10">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="P10">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="Q10">
-        <v>56.83154475202821</v>
+        <v>69.68291184624455</v>
       </c>
       <c r="R10">
-        <v>56.83154475202821</v>
+        <v>627.1462066162011</v>
       </c>
       <c r="S10">
-        <v>0.1581374939599049</v>
+        <v>0.1487714092302783</v>
       </c>
       <c r="T10">
-        <v>0.1581374939599049</v>
+        <v>0.1487714092302783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H11">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I11">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J11">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.72681321985602</v>
+        <v>5.974929333333333</v>
       </c>
       <c r="N11">
-        <v>5.72681321985602</v>
+        <v>17.924788</v>
       </c>
       <c r="O11">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="P11">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="Q11">
-        <v>76.96728490857483</v>
+        <v>93.86578332254977</v>
       </c>
       <c r="R11">
-        <v>76.96728490857483</v>
+        <v>844.792049902948</v>
       </c>
       <c r="S11">
-        <v>0.214166509206239</v>
+        <v>0.2004012819414389</v>
       </c>
       <c r="T11">
-        <v>0.214166509206239</v>
+        <v>0.2004012819414389</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H12">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I12">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J12">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.57593423578618</v>
+        <v>3.398978</v>
       </c>
       <c r="N12">
-        <v>2.57593423578618</v>
+        <v>10.196934</v>
       </c>
       <c r="O12">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="P12">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="Q12">
-        <v>34.62006819850351</v>
+        <v>53.39774157431267</v>
       </c>
       <c r="R12">
-        <v>34.62006819850351</v>
+        <v>480.5796741688141</v>
       </c>
       <c r="S12">
-        <v>0.09633260629321468</v>
+        <v>0.1140029463931314</v>
       </c>
       <c r="T12">
-        <v>0.09633260629321468</v>
+        <v>0.1140029463931314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.4398105811647</v>
+        <v>15.70994033333333</v>
       </c>
       <c r="H13">
-        <v>13.4398105811647</v>
+        <v>47.129821</v>
       </c>
       <c r="I13">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="J13">
-        <v>0.5521486968799278</v>
+        <v>0.5458912527445677</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.23311351541586</v>
+        <v>2.466151666666667</v>
       </c>
       <c r="N13">
-        <v>2.23311351541586</v>
+        <v>7.398455</v>
       </c>
       <c r="O13">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="P13">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="Q13">
-        <v>30.01262265342798</v>
+        <v>38.74309553628389</v>
       </c>
       <c r="R13">
-        <v>30.01262265342798</v>
+        <v>348.687859826555</v>
       </c>
       <c r="S13">
-        <v>0.08351208742056923</v>
+        <v>0.08271561517971919</v>
       </c>
       <c r="T13">
-        <v>0.08351208742056923</v>
+        <v>0.08271561517971919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H14">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I14">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J14">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.22859715237915</v>
+        <v>4.435593666666667</v>
       </c>
       <c r="N14">
-        <v>4.22859715237915</v>
+        <v>13.306781</v>
       </c>
       <c r="O14">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="P14">
-        <v>0.2864038163152526</v>
+        <v>0.2725293883759869</v>
       </c>
       <c r="Q14">
-        <v>2.284440054313618</v>
+        <v>3.566473093901445</v>
       </c>
       <c r="R14">
-        <v>2.284440054313618</v>
+        <v>32.098257845113</v>
       </c>
       <c r="S14">
-        <v>0.006356604010449534</v>
+        <v>0.007614337778138985</v>
       </c>
       <c r="T14">
-        <v>0.006356604010449534</v>
+        <v>0.007614337778138986</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H15">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I15">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J15">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.72681321985602</v>
+        <v>5.974929333333333</v>
       </c>
       <c r="N15">
-        <v>5.72681321985602</v>
+        <v>17.924788</v>
       </c>
       <c r="O15">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="P15">
-        <v>0.3878783204894756</v>
+        <v>0.3671084321902667</v>
       </c>
       <c r="Q15">
-        <v>3.093830183291673</v>
+        <v>4.804187738258221</v>
       </c>
       <c r="R15">
-        <v>3.093830183291673</v>
+        <v>43.237689644324</v>
       </c>
       <c r="S15">
-        <v>0.008608785034050973</v>
+        <v>0.01025682999017812</v>
       </c>
       <c r="T15">
-        <v>0.008608785034050973</v>
+        <v>0.01025682999017812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H16">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I16">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J16">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.57593423578618</v>
+        <v>3.398978</v>
       </c>
       <c r="N16">
-        <v>2.57593423578618</v>
+        <v>10.196934</v>
       </c>
       <c r="O16">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="P16">
-        <v>0.1744685930394643</v>
+        <v>0.2088381995863842</v>
       </c>
       <c r="Q16">
-        <v>1.391612190391992</v>
+        <v>2.732974319731333</v>
       </c>
       <c r="R16">
-        <v>1.391612190391992</v>
+        <v>24.596768877582</v>
       </c>
       <c r="S16">
-        <v>0.003872252026807524</v>
+        <v>0.005834837123823552</v>
       </c>
       <c r="T16">
-        <v>0.003872252026807524</v>
+        <v>0.005834837123823553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.540235915598703</v>
+        <v>0.8040576666666667</v>
       </c>
       <c r="H17">
-        <v>0.540235915598703</v>
+        <v>2.412173</v>
       </c>
       <c r="I17">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703474</v>
       </c>
       <c r="J17">
-        <v>0.02219455066008144</v>
+        <v>0.02793951075703475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.23311351541586</v>
+        <v>2.466151666666667</v>
       </c>
       <c r="N17">
-        <v>2.23311351541586</v>
+        <v>7.398455</v>
       </c>
       <c r="O17">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="P17">
-        <v>0.1512492701558074</v>
+        <v>0.1515239798473622</v>
       </c>
       <c r="Q17">
-        <v>1.206408124636525</v>
+        <v>1.982928154746111</v>
       </c>
       <c r="R17">
-        <v>1.206408124636525</v>
+        <v>17.846353392715</v>
       </c>
       <c r="S17">
-        <v>0.003356909588773412</v>
+        <v>0.004233505864894092</v>
       </c>
       <c r="T17">
-        <v>0.003356909588773412</v>
+        <v>0.004233505864894093</v>
       </c>
     </row>
   </sheetData>
